--- a/data/teams.xlsx
+++ b/data/teams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivana_Kovacova\Documents\fitness challenge\fitness_app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78E9746F-C57A-4EA8-A9C0-F8F759650BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CAF80E-1101-47C5-8F4A-79AB9FFF703E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{36C607E6-452E-4748-A98C-75BADCF1880B}"/>
+    <workbookView xWindow="3624" yWindow="2124" windowWidth="17280" windowHeight="8976" xr2:uid="{36C607E6-452E-4748-A98C-75BADCF1880B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -261,9 +261,6 @@
     <t>Marco Martins</t>
   </si>
   <si>
-    <t>Matheus Avila</t>
-  </si>
-  <si>
     <t>Nealie Glasser</t>
   </si>
   <si>
@@ -334,6 +331,9 @@
   </si>
   <si>
     <t>Victor Frank</t>
+  </si>
+  <si>
+    <t>Isha Kanani</t>
   </si>
 </sst>
 </file>
@@ -711,7 +711,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J10"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -957,83 +957,83 @@
         <v>74</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/data/teams.xlsx
+++ b/data/teams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivana_Kovacova\Documents\fitness challenge\fitness_app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CAF80E-1101-47C5-8F4A-79AB9FFF703E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A77AD8-542C-44CC-8F9E-8B6D0AC19FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3624" yWindow="2124" windowWidth="17280" windowHeight="8976" xr2:uid="{36C607E6-452E-4748-A98C-75BADCF1880B}"/>
+    <workbookView xWindow="-75" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{36C607E6-452E-4748-A98C-75BADCF1880B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,36 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
-    <t>Team 1</t>
-  </si>
-  <si>
-    <t>Team 2</t>
-  </si>
-  <si>
-    <t>Team 3</t>
-  </si>
-  <si>
-    <t>Team 4</t>
-  </si>
-  <si>
-    <t>Team 5</t>
-  </si>
-  <si>
-    <t>Team 6</t>
-  </si>
-  <si>
-    <t>Team 7</t>
-  </si>
-  <si>
-    <t>Team 8</t>
-  </si>
-  <si>
-    <t>Team 9</t>
-  </si>
-  <si>
-    <t>Team 10</t>
-  </si>
-  <si>
     <t>Fernanda Nicolao Mattei</t>
   </si>
   <si>
@@ -334,6 +304,36 @@
   </si>
   <si>
     <t>Isha Kanani</t>
+  </si>
+  <si>
+    <t>Pace Makers</t>
+  </si>
+  <si>
+    <t>The Gladeaters</t>
+  </si>
+  <si>
+    <t>Flab-u-less!</t>
+  </si>
+  <si>
+    <t>Unstoppable 9</t>
+  </si>
+  <si>
+    <t>The Pokemons</t>
+  </si>
+  <si>
+    <t>Fit don’t Quit</t>
+  </si>
+  <si>
+    <t>No Mo Junk in da Trunk</t>
+  </si>
+  <si>
+    <t>Not fast but furious</t>
+  </si>
+  <si>
+    <t>FANTASTIC 9</t>
+  </si>
+  <si>
+    <t>J's Kaarmaa</t>
   </si>
 </sst>
 </file>
@@ -711,329 +711,329 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/data/teams.xlsx
+++ b/data/teams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivana_Kovacova\Documents\fitness challenge\fitness_app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A77AD8-542C-44CC-8F9E-8B6D0AC19FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB73F7F-B4AE-41A5-B8E5-512A46E124B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-75" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{36C607E6-452E-4748-A98C-75BADCF1880B}"/>
+    <workbookView xWindow="-3732" yWindow="-17388" windowWidth="30936" windowHeight="16896" xr2:uid="{36C607E6-452E-4748-A98C-75BADCF1880B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>Fernanda Nicolao Mattei</t>
   </si>
@@ -334,6 +334,12 @@
   </si>
   <si>
     <t>J's Kaarmaa</t>
+  </si>
+  <si>
+    <t>Souvik Nath</t>
+  </si>
+  <si>
+    <t>Akhilesh Paliwal</t>
   </si>
 </sst>
 </file>
@@ -708,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{885D685E-B0E0-4CBC-A964-0E9181FE0B92}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1034,6 +1040,14 @@
       </c>
       <c r="J10" s="2" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H11" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/data/teams.xlsx
+++ b/data/teams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivana_Kovacova\Documents\fitness challenge\fitness_app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB73F7F-B4AE-41A5-B8E5-512A46E124B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67B5780-BC86-4B41-84E2-A2E02968B061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-3732" yWindow="-17388" windowWidth="30936" windowHeight="16896" xr2:uid="{36C607E6-452E-4748-A98C-75BADCF1880B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="103">
   <si>
     <t>Fernanda Nicolao Mattei</t>
   </si>
@@ -340,6 +340,9 @@
   </si>
   <si>
     <t>Akhilesh Paliwal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -717,7 +720,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1043,8 +1046,32 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="H11" s="2" t="s">
         <v>101</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>100</v>

--- a/data/teams.xlsx
+++ b/data/teams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivana_Kovacova\Documents\fitness challenge\fitness_app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67B5780-BC86-4B41-84E2-A2E02968B061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9C04E0-1403-439A-ABF1-E3C687ABDAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3732" yWindow="-17388" windowWidth="30936" windowHeight="16896" xr2:uid="{36C607E6-452E-4748-A98C-75BADCF1880B}"/>
+    <workbookView xWindow="1860" yWindow="-13035" windowWidth="11550" windowHeight="8970" xr2:uid="{36C607E6-452E-4748-A98C-75BADCF1880B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -720,10 +720,21 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">

--- a/data/teams.xlsx
+++ b/data/teams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivana_Kovacova\Documents\fitness challenge\fitness_app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9C04E0-1403-439A-ABF1-E3C687ABDAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C25AF90-6E5C-42FB-A4AF-677D445BB6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="-13035" windowWidth="11550" windowHeight="8970" xr2:uid="{36C607E6-452E-4748-A98C-75BADCF1880B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{36C607E6-452E-4748-A98C-75BADCF1880B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -720,7 +720,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
